--- a/biology/Botanique/Alexandre_Alexandrovitch_Fischer_von_Waldheim/Alexandre_Alexandrovitch_Fischer_von_Waldheim.xlsx
+++ b/biology/Botanique/Alexandre_Alexandrovitch_Fischer_von_Waldheim/Alexandre_Alexandrovitch_Fischer_von_Waldheim.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alexandre Alexandrovitch Fischer von Waldheim (Алекса́ндр Алекса́ндрович Фи́шер фон Ва́льдгейм), né le 20 avril 1839 à Moscou et mort le 28 février 1920 à Sotchi, est un botaniste russe d'origine allemande qui fut directeur du jardin botanique impérial de Saint-Pétersbourg. C'est le fils d'Alexandre Grigorievitch Fischer von Waldheim et le petit-fils de Gotthelf Fischer von Waldheim.
 </t>
@@ -511,7 +523,9 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Alexandre Fischer von Waldheim termine en 1861 les cours de l'université impériale de Moscou. Il passe son examen en 1858 de candidat au doctorat ès sciences naturelles et devient assistant à partir de 1864 du professeur Anton de Bary au laboratoire public de botanique de Fribourg-en-Brisgau. L'année suivante, il devient docteur en biologie de l'université de Bonn après une thèse portant sur l'histoire du développement des spores chez les filicophytes et en 1867 docteur en botanique après une thèse consacrée sur l'histoire des Ustilaginales, champignons parasites appartenant à la famille des Teliosporomycetidae, et publiée en 1869 dans le Jahrbücher für wissenschaftliche Botanik de Pringsheim et traduite en anglais dans le Transactions of the New York State Agricult. Soc. for the year 1870 (Albany).
 Alexandre Fischer von Waldheim entreprend plusieurs voyages à l'étranger dans le cadre de ses recherches. Il visite ainsi en 1897 le jardin botanique de Berlin, considéré comme l'un des plus importants de son époque, ainsi que les jardins botaniques de Hambourg et de Bruxelles et Kew Gardens en Angleterre. Il rapporte des descriptions de leurs serres, de leur organisation et de leurs laboratoires.
@@ -547,7 +561,9 @@
           <t>Décorations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ordre de Sainte-Anne de 2e classe (1876)
 Ordre de Saint-Vladimir de 3e classe (1880)
@@ -590,7 +606,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Современное состояние учения об оплодотворении хвойных. — 1865. [Situation contemporaine de l'étude de la multiplication des pinophytes ]
 Практический курс микроскопии к морфологии, гистологии и физиологии растений. — 1865. [Cours pratique de microscopie en morphologie, histologie et physiologie botaniques]
